--- a/data/trans_dic/P40_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra parado/a en la actualidad</t>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>9,31%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>9,51%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,71%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>16,29%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19,23%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>16,57%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,39%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,64%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
           <t>15,85%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>19,09%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 17,5</t>
+          <t>11,55; 18,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 16,86</t>
+          <t>10,27; 16,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,2</t>
+          <t>7,1; 12,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 11,81</t>
+          <t>6,42; 11,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,64; 19,5</t>
+          <t>6,85; 12,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,11; 19,24</t>
+          <t>13,73; 19,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 18,57</t>
+          <t>16,4; 22,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 13,64</t>
+          <t>14,16; 19,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,4; 12,64</t>
+          <t>12,68; 18,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 17,75</t>
+          <t>9,19; 13,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 17,77</t>
+          <t>8,66; 12,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 16,65</t>
+          <t>10,38; 15,51</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 12,0</t>
+          <t>13,03; 18,06</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,32</t>
+          <t>16,23; 21,36</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 18,04</t>
+          <t>13,48; 17,7</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 16,26</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 11,99</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 11,31</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>9,25; 13,18</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>14,1; 17,88</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>17,07; 21,3</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>13,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>15,22%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,78%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>19,83%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,4%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>13,61%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>14,58%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>15,08%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>13,64%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>11,71%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,69; 22,29</t>
+          <t>14,7; 21,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 23,61</t>
+          <t>12,28; 20,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,03</t>
+          <t>8,61; 15,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,1</t>
+          <t>9,7; 17,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 20,61</t>
+          <t>6,56; 12,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 25,4</t>
+          <t>10,08; 20,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,73</t>
+          <t>10,54; 19,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,2; 19,06</t>
+          <t>18,52; 25,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,51; 19,16</t>
+          <t>17,66; 25,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,19; 20,01</t>
+          <t>13,15; 19,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 22,62</t>
+          <t>13,24; 19,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,68; 23,04</t>
+          <t>11,17; 17,68</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 15,9</t>
+          <t>11,29; 20,35</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 17,3</t>
+          <t>12,45; 22,54</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>12,04; 18,32</t>
+          <t>17,18; 22,5</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16,17; 21,67</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>11,69; 15,95</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12,5; 17,77</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 13,99</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 18,55</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 19,51</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>25,45%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15,54%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,98%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>22,87%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>19,88%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>12,85%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>20,54%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
         <is>
           <t>9,45%</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,8; 34,28</t>
+          <t>12,4; 32,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 32,94</t>
+          <t>11,84; 35,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 15,67</t>
+          <t>5,56; 15,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,56</t>
+          <t>1,22; 7,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,78; 11,02</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>19,71; 32,23</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 28,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,5; 21,18</t>
+          <t>19,68; 31,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 20,96</t>
+          <t>15,78; 29,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>11,09; 21,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 21,1</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 19,83</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>17,48; 30,32</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>14,91; 27,65</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 16,8</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,73; 12,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>17,72; 30,76</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 28,42</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>9,39; 16,42</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 12,66</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 13,75</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18,16%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>19,56%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>18,25%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,48%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>13,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>13,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>15,39%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>18,04%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>16,99%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>11,94%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>11,53%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>15,68%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>18,32%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 18,9</t>
+          <t>14,26; 19,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,63</t>
+          <t>12,1; 17,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 12,39</t>
+          <t>8,45; 12,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 11,85</t>
+          <t>8,1; 12,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,8; 18,68</t>
+          <t>7,08; 10,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,54; 21,5</t>
+          <t>13,65; 18,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 20,58</t>
+          <t>15,49; 21,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,98; 15,34</t>
+          <t>17,52; 21,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,04</t>
+          <t>16,19; 20,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,5; 17,63</t>
+          <t>11,98; 15,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,52; 19,66</t>
+          <t>11,59; 14,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,33; 18,78</t>
+          <t>11,42; 15,42</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 13,39</t>
+          <t>13,29; 17,72</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 12,94</t>
+          <t>16,16; 21,04</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>14,08; 17,44</t>
+          <t>16,53; 19,89</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 18,39</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 13,12</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>10,41; 13,03</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 12,65</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 17,19</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 20,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra parado/a en la actualidad (tasa de respuesta: 99,8%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>231839</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>212856</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>153234</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>142899</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>153690</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37302</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42682</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>295512</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>273087</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>205671</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>190362</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>229352</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>36545</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>44492</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>527351</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>485943</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>358905</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>333262</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>383041</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>73848</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>87174</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>189438; 298828</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>169436; 273734</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>116813; 198674</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>105562; 193212</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>110605; 202583</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31449; 44886</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>36398; 50998</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>252652; 351169</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>228521; 327943</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>167577; 247191</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>157093; 230023</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>185875; 277706</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>30851; 42747</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38090; 50146</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>461436; 606079</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>417116; 561208</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>305381; 416052</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>282537; 391262</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>315031; 448879</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>65688; 83291</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>77955; 97277</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>248691</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>216473</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>155803</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>180773</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>126705</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10739</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10604</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>304604</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>298009</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>219674</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>225266</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>195786</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9976</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11134</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>553294</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>514482</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>375477</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>406038</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>322491</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>20715</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>21738</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>203265; 302822</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>168109; 279586</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>118708; 208892</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>133528; 245201</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>90114; 168638</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7246; 14844</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7543; 14038</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>260789; 360821</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>245394; 352359</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>180682; 262373</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>182992; 269915</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>154051; 243808</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7403; 13340</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8259; 14954</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>479525; 627945</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>445894; 597640</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>321885; 439178</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>344845; 490153</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>268732; 385217</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>16407; 25494</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>17441; 26910</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86066</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>81962</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41259</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13119</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25166</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>104839</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>89468</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>63613</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>64401</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53435</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>190905</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>171430</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>104872</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>77520</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>78602</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>52431; 139336</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50060; 148717</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23373; 64576</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5106; 29672</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11774; 46611</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>81049; 131658</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64997; 120234</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45435; 89039</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45768; 86914</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32664; 81137</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>147922; 256736</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>129083; 237194</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>77908; 136305</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>55924; 105130</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>52112; 114360</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>351.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>566596</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>511291</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>350297</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>336790</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>305561</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48041</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53286</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>704954</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>660564</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>488958</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>480029</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>478573</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>46521</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>55626</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1271551</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1171855</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>839254</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>816819</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>784134</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>94563</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>108912</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>491496; 665223</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>416495; 604782</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>291148; 425348</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>278527; 413915</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>241576; 371286</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>41092; 56199</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>45463; 62383</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>631416; 783681</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>583429; 737209</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>432145; 548929</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>418071; 539693</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>408697; 551802</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>40185; 53557</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>48665; 63342</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1165125; 1402016</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1056106; 1295443</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>747262; 925654</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>733469; 918438</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>700973; 884139</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>84953; 103679</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>99179; 120466</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
